--- a/ONCHO/Breeding Site Survey/Guinée Bissau/gw_oncho_bsc_2_bs_localisation_202209.xlsx
+++ b/ONCHO/Breeding Site Survey/Guinée Bissau/gw_oncho_bsc_2_bs_localisation_202209.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>type</t>
   </si>
@@ -222,115 +222,58 @@
     <t>Não</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Bade</t>
-  </si>
-  <si>
-    <t>Bursari</t>
-  </si>
-  <si>
-    <t>Fika</t>
-  </si>
-  <si>
-    <t>Fune</t>
-  </si>
-  <si>
-    <t>Geidam</t>
-  </si>
-  <si>
-    <t>Gujba</t>
-  </si>
-  <si>
-    <t>Gulani</t>
-  </si>
-  <si>
-    <t>Jakusko</t>
-  </si>
-  <si>
-    <t>Karasuwa</t>
-  </si>
-  <si>
-    <t>Nguru</t>
-  </si>
-  <si>
-    <t>Tarmuwa</t>
-  </si>
-  <si>
-    <t>Yusufari</t>
+    <t>Bafata</t>
+  </si>
+  <si>
+    <t>Gabu</t>
+  </si>
+  <si>
+    <t>Canjadude</t>
+  </si>
+  <si>
+    <t>Dara</t>
   </si>
   <si>
     <t>community</t>
   </si>
   <si>
-    <t>Dagona</t>
-  </si>
-  <si>
-    <t>Kaliyari</t>
-  </si>
-  <si>
-    <t>Renukunu</t>
-  </si>
-  <si>
-    <t>Chana</t>
-  </si>
-  <si>
-    <t>Doto</t>
-  </si>
-  <si>
-    <t>Kurmi</t>
-  </si>
-  <si>
-    <t>Abakire</t>
-  </si>
-  <si>
-    <t>Garin Baushe</t>
-  </si>
-  <si>
-    <t>Gubana</t>
-  </si>
-  <si>
-    <t>Madawun</t>
-  </si>
-  <si>
-    <t>Mashio</t>
-  </si>
-  <si>
-    <t>Gumsa</t>
-  </si>
-  <si>
-    <t>Katarko</t>
-  </si>
-  <si>
-    <t>Manjim</t>
-  </si>
-  <si>
-    <t>Dokshi</t>
-  </si>
-  <si>
-    <t>Addia</t>
-  </si>
-  <si>
-    <t>Daifa</t>
-  </si>
-  <si>
-    <t>Muguram</t>
-  </si>
-  <si>
-    <t>Garunguna</t>
-  </si>
-  <si>
-    <t>Dabule</t>
-  </si>
-  <si>
-    <t>Yamdugu</t>
-  </si>
-  <si>
-    <t>Muli</t>
-  </si>
-  <si>
-    <t>Kachellari</t>
+    <t>Bantael</t>
+  </si>
+  <si>
+    <t>Burutumba</t>
+  </si>
+  <si>
+    <t>Cabuca</t>
+  </si>
+  <si>
+    <t>Camamudo</t>
+  </si>
+  <si>
+    <t>Camidina</t>
+  </si>
+  <si>
+    <t>Cansamba Jau</t>
+  </si>
+  <si>
+    <t>Cantire</t>
+  </si>
+  <si>
+    <t>Ché-Ché</t>
+  </si>
+  <si>
+    <t>Cusselintra</t>
+  </si>
+  <si>
+    <t>Cutumaru</t>
+  </si>
+  <si>
+    <t>Gã Guirô</t>
+  </si>
+  <si>
+    <t>Samadoro</t>
+  </si>
+  <si>
+    <t>Sele-Sele</t>
   </si>
   <si>
     <t>form_title</t>
@@ -356,10 +299,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -415,6 +358,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -423,17 +388,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,6 +420,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,57 +449,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -512,6 +457,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -519,30 +486,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -565,25 +508,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,151 +640,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,11 +711,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,54 +785,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -865,145 +799,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1883,12 +1826,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1955,29 +1898,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:4">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="6" customFormat="1" spans="1:3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C6" t="s">
         <v>69</v>
       </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-    </row>
+    </row>
+    <row r="7" customFormat="1"/>
     <row r="8" customFormat="1" spans="1:4">
       <c r="A8" t="s">
         <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
         <v>68</v>
@@ -1988,13 +1929,13 @@
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:4">
@@ -2002,13 +1943,13 @@
         <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:4">
@@ -2016,122 +1957,123 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1"/>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:4">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
         <v>74</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>74</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:4">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:4">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:4">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:4">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:4">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>79</v>
       </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:4">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
+      <c r="E19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
         <v>69</v>
@@ -2139,310 +2081,72 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +2161,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2469,24 +2173,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
